--- a/data/金砖四国汇率判断随机游走_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率判断随机游走_BIS_自动生成的.xlsx
@@ -145,25 +145,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0570953499521055E-13</v>
+        <v>-1.6318765527125217E-13</v>
       </c>
       <c r="C2" t="n">
-        <v>1.118215878506847E-15</v>
+        <v>3.008720033026417E-15</v>
       </c>
       <c r="D2" t="n">
-        <v>-94.53410296441545</v>
+        <v>-54.238232032212274</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000017</v>
+        <v>1.0000000000000455</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7105401856179155E-16</v>
+        <v>7.859761946970654E-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.846106442911642E15</v>
+        <v>1.2723031648375435E15</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -174,25 +174,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.0570953499521055E-13</v>
+        <v>-2.7331587315640655E-13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.118215878506847E-15</v>
+        <v>4.713343411078112E-15</v>
       </c>
       <c r="D3" t="n">
-        <v>-94.53410296441545</v>
+        <v>-57.98768502927507</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000000017</v>
+        <v>1.0000000000000329</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7105401856179155E-16</v>
+        <v>5.659844294240386E-16</v>
       </c>
       <c r="H3" t="n">
-        <v>5.846106442911642E15</v>
+        <v>1.7668330576119568E15</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -203,25 +203,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.0570953499521055E-13</v>
+        <v>-2.4068531144122718E-14</v>
       </c>
       <c r="C4" t="n">
-        <v>1.118215878506847E-15</v>
+        <v>6.599240889866341E-16</v>
       </c>
       <c r="D4" t="n">
-        <v>-94.53410296441545</v>
+        <v>-36.47166628071095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>4.444908393251626E-199</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000000017</v>
+        <v>1.0000000000000033</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7105401856179155E-16</v>
+        <v>8.943656570299422E-17</v>
       </c>
       <c r="H4" t="n">
-        <v>5.846106442911642E15</v>
+        <v>1.1181109115044258E16</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -232,25 +232,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.0570953499521055E-13</v>
+        <v>-1.5669395634744525E-15</v>
       </c>
       <c r="C5" t="n">
-        <v>1.118215878506847E-15</v>
+        <v>1.052422815540917E-17</v>
       </c>
       <c r="D5" t="n">
-        <v>-94.53410296441545</v>
+        <v>-148.8887869338986</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000000017</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7105401856179155E-16</v>
+        <v>1.6665526516198005E-18</v>
       </c>
       <c r="H5" t="n">
-        <v>5.846106442911642E15</v>
+        <v>6.0004104822494118E17</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -261,25 +261,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.0570953499521055E-13</v>
+        <v>2.895755574789367E-15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.118215878506847E-15</v>
+        <v>5.622085128569185E-17</v>
       </c>
       <c r="D6" t="n">
-        <v>-94.53410296441545</v>
+        <v>51.50678989320701</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>9.63036590974984E-266</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000017</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7105401856179155E-16</v>
+        <v>8.463508070759038E-18</v>
       </c>
       <c r="H6" t="n">
-        <v>5.846106442911642E15</v>
+        <v>1.18154315165710704E17</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -330,25 +330,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.059693705008731E-14</v>
+        <v>-4.25696378173657E-14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.3297427530070725E-16</v>
+        <v>1.7114320270762964E-15</v>
       </c>
       <c r="D2" t="n">
-        <v>-94.93316918821311</v>
+        <v>-24.87369474444685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.7996429472587007E-97</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0000000000000016</v>
+        <v>1.0000000000000053</v>
       </c>
       <c r="G2" t="n">
-        <v>1.407577936870019E-17</v>
+        <v>2.1522100281439856E-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.1044023482185728E16</v>
+        <v>4.646386676593926E15</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -359,25 +359,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.059693705008731E-14</v>
+        <v>-4.253919669509052E-14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.3297427530070725E-16</v>
+        <v>7.040608495146683E-16</v>
       </c>
       <c r="D3" t="n">
-        <v>-94.93316918821311</v>
+        <v>-60.41977298469891</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0000000000000016</v>
+        <v>1.0000000000000036</v>
       </c>
       <c r="G3" t="n">
-        <v>1.407577936870019E-17</v>
+        <v>5.552469779025269E-17</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1044023482185728E16</v>
+        <v>1.8010003472284594E16</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -388,13 +388,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.059693705008731E-14</v>
+        <v>-6.247162898323464E-14</v>
       </c>
       <c r="C4" t="n">
-        <v>5.3297427530070725E-16</v>
+        <v>9.069078218790383E-16</v>
       </c>
       <c r="D4" t="n">
-        <v>-94.93316918821311</v>
+        <v>-68.88421014364897</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -403,10 +403,10 @@
         <v>1.0000000000000016</v>
       </c>
       <c r="G4" t="n">
-        <v>1.407577936870019E-17</v>
+        <v>2.20865843013176E-17</v>
       </c>
       <c r="H4" t="n">
-        <v>7.1044023482185728E16</v>
+        <v>4.527635357090256E16</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -417,25 +417,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.059693705008731E-14</v>
+        <v>5.4170294236612904E-14</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3297427530070725E-16</v>
+        <v>9.052377728302165E-16</v>
       </c>
       <c r="D5" t="n">
-        <v>-94.93316918821311</v>
+        <v>59.8409565558119</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0000000000000016</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G5" t="n">
-        <v>1.407577936870019E-17</v>
+        <v>1.545934866560733E-17</v>
       </c>
       <c r="H5" t="n">
-        <v>7.1044023482185728E16</v>
+        <v>6.4685778271158064E16</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -486,25 +486,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1020333394948347E-13</v>
+        <v>1.2688263138573218E-15</v>
       </c>
       <c r="C2" t="n">
-        <v>1.512090223937028E-15</v>
+        <v>6.330884370586687E-17</v>
       </c>
       <c r="D2" t="n">
-        <v>72.88145390064567</v>
+        <v>20.041849441324402</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.989036048462235E-72</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999961</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4932963600321544E-17</v>
+        <v>2.6661485343198832E-17</v>
       </c>
       <c r="H2" t="n">
-        <v>2.225537600624322E16</v>
+        <v>3.7507287652114728E16</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -515,25 +515,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1020333394948347E-13</v>
+        <v>1.003605449833527E-15</v>
       </c>
       <c r="C3" t="n">
-        <v>1.512090223937028E-15</v>
+        <v>5.292871504570266E-17</v>
       </c>
       <c r="D3" t="n">
-        <v>72.88145390064567</v>
+        <v>18.961455024308414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.6808038376546361E-66</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999961</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4932963600321544E-17</v>
+        <v>9.692232458116118E-18</v>
       </c>
       <c r="H3" t="n">
-        <v>2.225537600624322E16</v>
+        <v>1.03175404048694272E17</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -544,25 +544,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1020333394948347E-13</v>
+        <v>-3.173895907217586E-14</v>
       </c>
       <c r="C4" t="n">
-        <v>1.512090223937028E-15</v>
+        <v>5.235997951923551E-16</v>
       </c>
       <c r="D4" t="n">
-        <v>72.88145390064567</v>
+        <v>-60.6168286611264</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999961</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4932963600321544E-17</v>
+        <v>1.7925566505224088E-17</v>
       </c>
       <c r="H4" t="n">
-        <v>2.225537600624322E16</v>
+        <v>5.5786242499424992E16</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -573,25 +573,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1020333394948347E-13</v>
+        <v>-6.993630585394215E-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.512090223937028E-15</v>
+        <v>1.7238360354505553E-15</v>
       </c>
       <c r="D5" t="n">
-        <v>72.88145390064567</v>
+        <v>-40.570161207740995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.3778857004579304E-217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999999999999961</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4932963600321544E-17</v>
+        <v>2.766817284922089E-17</v>
       </c>
       <c r="H5" t="n">
-        <v>2.225537600624322E16</v>
+        <v>3.6142610697480888E16</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -642,25 +642,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>-2.631124691581885E-21</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>1.5317900460785275E-22</v>
       </c>
       <c r="D2" t="n">
-        <v>-76.62677810688446</v>
+        <v>-17.176797161711026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>4.29692903655868E-61</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0000000000000053</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G2" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>4.082430178958421E-18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.778757293669999E16</v>
+        <v>2.44952137859988384E17</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>-5.0866214461900707E-17</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>3.990777006966261E-18</v>
       </c>
       <c r="D3" t="n">
-        <v>-76.62677810688446</v>
+        <v>-12.74594255031267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.5417328790757664E-33</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0000000000000053</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="G3" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>1.9848745182222064E-17</v>
       </c>
       <c r="H3" t="n">
-        <v>1.778757293669999E16</v>
+        <v>5.0381018589309672E16</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -700,25 +700,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>6.2913017313195E-16</v>
       </c>
       <c r="C4" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>2.033345572814057E-17</v>
       </c>
       <c r="D4" t="n">
-        <v>-76.62677810688446</v>
+        <v>30.94064194219887</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>2.6937127675831866E-153</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0000000000000053</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G4" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>1.9628218294936313E-17</v>
       </c>
       <c r="H4" t="n">
-        <v>1.778757293669999E16</v>
+        <v>5.0947059227376704E16</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -729,25 +729,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>4.610610094765734E-16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>5.424665966564644E-18</v>
       </c>
       <c r="D5" t="n">
-        <v>-76.62677810688446</v>
+        <v>84.99343781135266</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0000000000000053</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>2.435777231920251E-18</v>
       </c>
       <c r="H5" t="n">
-        <v>1.778757293669999E16</v>
+        <v>4.1054657498857043E17</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -758,25 +758,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>4.806990945722264E-15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>1.2330312898169538E-16</v>
       </c>
       <c r="D6" t="n">
-        <v>-76.62677810688446</v>
+        <v>38.98514973156823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>4.196011098641492E-229</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0000000000000053</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="G6" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>4.890096054951473E-17</v>
       </c>
       <c r="H6" t="n">
-        <v>1.778757293669999E16</v>
+        <v>2.0449496058210284E16</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -787,25 +787,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>-2.838697112926132E-15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>1.2703782988296197E-16</v>
       </c>
       <c r="D7" t="n">
-        <v>-76.62677810688446</v>
+        <v>-22.3452897104853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>3.472040030522237E-66</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0000000000000053</v>
+        <v>1.0000000000000013</v>
       </c>
       <c r="G7" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>6.113813336044939E-17</v>
       </c>
       <c r="H7" t="n">
-        <v>1.778757293669999E16</v>
+        <v>1.635640385198458E16</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -816,25 +816,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>-0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>4.834795812882478E-18</v>
       </c>
       <c r="D8" t="n">
-        <v>-76.62677810688446</v>
+        <v>-0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0000000000000053</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>2.2321279617786384E-18</v>
       </c>
       <c r="H8" t="n">
-        <v>1.778757293669999E16</v>
+        <v>4.4800298957912998E17</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -845,25 +845,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>-8.564007826390746E-15</v>
+        <v>-7.873306470451594E-15</v>
       </c>
       <c r="C9" t="n">
-        <v>1.1176259837579315E-16</v>
+        <v>2.6498817531955215E-16</v>
       </c>
       <c r="D9" t="n">
-        <v>-76.62677810688446</v>
+        <v>-29.711916242893057</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>8.397436631225018E-133</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0000000000000053</v>
+        <v>1.0000000000000022</v>
       </c>
       <c r="G9" t="n">
-        <v>5.621902457174288E-17</v>
+        <v>7.591039797160857E-17</v>
       </c>
       <c r="H9" t="n">
-        <v>1.778757293669999E16</v>
+        <v>1.3173425864188126E16</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
